--- a/Data/Test/dataset23/input_data.xlsx
+++ b/Data/Test/dataset23/input_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset26\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48191565-2F79-4426-A2A1-7ADB97A11A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72D59F4-FBFC-43EE-8377-D98784474E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -568,20 +568,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="6" width="8.796875" style="1"/>
-    <col min="7" max="8" width="8.796875" style="2"/>
-    <col min="9" max="10" width="8.796875" style="3"/>
+    <col min="4" max="7" width="8.796875" style="1"/>
+    <col min="8" max="9" width="8.796875" style="2"/>
+    <col min="10" max="11" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,20 +600,23 @@
       <c r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
       <c r="H1" s="2">
         <v>7</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="2">
         <v>8</v>
       </c>
       <c r="J1" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K1" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -632,20 +635,23 @@
       <c r="F2" s="1">
         <v>25</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="1">
         <v>25</v>
       </c>
       <c r="H2" s="2">
         <v>25</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>25</v>
       </c>
       <c r="J2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -664,20 +670,23 @@
       <c r="F3" s="1">
         <v>90</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <v>90</v>
       </c>
       <c r="H3" s="2">
         <v>90</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="2">
         <v>90</v>
       </c>
       <c r="J3" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -696,20 +705,23 @@
       <c r="F4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>3</v>
       </c>
       <c r="J4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -728,20 +740,23 @@
       <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
       <c r="H5" s="2">
         <v>10</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>10</v>
       </c>
       <c r="J5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -760,20 +775,23 @@
       <c r="F6" s="1">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>24</v>
       </c>
       <c r="H6" s="2">
         <v>24</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>24</v>
       </c>
       <c r="J6" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -792,20 +810,23 @@
       <c r="F7" s="1">
         <v>16</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>16</v>
       </c>
       <c r="H7" s="2">
         <v>16</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>16</v>
       </c>
       <c r="J7" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -824,20 +845,23 @@
       <c r="F8" s="1">
         <v>20</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>20</v>
       </c>
       <c r="H8" s="2">
         <v>20</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>20</v>
       </c>
       <c r="J8" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -856,20 +880,23 @@
       <c r="F9" s="1">
         <v>3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>3</v>
       </c>
       <c r="J9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -888,20 +915,23 @@
       <c r="F10" s="1">
         <v>12</v>
       </c>
-      <c r="G10" s="2">
-        <v>20</v>
+      <c r="G10" s="1">
+        <v>12</v>
       </c>
       <c r="H10" s="2">
         <v>20</v>
       </c>
-      <c r="I10" s="3">
-        <v>12</v>
+      <c r="I10" s="2">
+        <v>20</v>
       </c>
       <c r="J10" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -920,20 +950,23 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1</v>
       </c>
       <c r="H11" s="2">
         <v>1</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -952,20 +985,23 @@
       <c r="F12" s="1">
         <v>20</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>20</v>
       </c>
       <c r="H12" s="2">
         <v>20</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>20</v>
       </c>
       <c r="J12" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -984,20 +1020,23 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="2">
-        <v>2</v>
+      <c r="G13" s="1">
+        <v>1</v>
       </c>
       <c r="H13" s="2">
         <v>2</v>
       </c>
-      <c r="I13" s="3">
-        <v>3</v>
+      <c r="I13" s="2">
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1016,20 +1055,23 @@
       <c r="F14" s="1">
         <v>12</v>
       </c>
-      <c r="G14" s="2">
-        <v>4</v>
+      <c r="G14" s="1">
+        <v>12</v>
       </c>
       <c r="H14" s="2">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>6</v>
+      <c r="I14" s="2">
+        <v>4</v>
       </c>
       <c r="J14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1048,20 +1090,23 @@
       <c r="F15" s="1">
         <v>8</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>8</v>
       </c>
       <c r="H15" s="2">
         <v>8</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>8</v>
       </c>
       <c r="J15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1080,20 +1125,23 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>2</v>
       </c>
       <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>2</v>
       </c>
       <c r="J16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1112,20 +1160,23 @@
       <c r="F17" s="1">
         <v>20</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="1">
         <v>20</v>
       </c>
       <c r="H17" s="2">
         <v>20</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>20</v>
       </c>
       <c r="J17" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1144,22 +1195,25 @@
       <c r="F18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="G18" s="2">
-        <f>-0.1</f>
+      <c r="G18" s="1">
         <v>-0.1</v>
       </c>
       <c r="H18" s="2">
         <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="J18" s="3">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K18" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1178,20 +1232,23 @@
       <c r="F19" s="1">
         <v>10</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>10</v>
       </c>
       <c r="H19" s="2">
         <v>10</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>10</v>
       </c>
       <c r="J19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1210,20 +1267,23 @@
       <c r="F20" s="1">
         <v>0.9</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>0.9</v>
       </c>
       <c r="H20" s="2">
         <v>0.9</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="2">
         <v>0.9</v>
       </c>
       <c r="J20" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K20" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1242,20 +1302,23 @@
       <c r="F21" s="1">
         <v>100</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="1">
         <v>100</v>
       </c>
       <c r="H21" s="2">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>100</v>
       </c>
       <c r="J21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1274,20 +1337,23 @@
       <c r="F22" s="1">
         <v>25</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="1">
         <v>25</v>
       </c>
       <c r="H22" s="2">
         <v>25</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>25</v>
       </c>
       <c r="J22" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1306,20 +1372,23 @@
       <c r="F23" s="1">
         <v>20</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="1">
         <v>20</v>
       </c>
       <c r="H23" s="2">
         <v>20</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>20</v>
       </c>
       <c r="J23" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1338,20 +1407,23 @@
       <c r="F24" s="1">
         <v>60</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="1">
         <v>60</v>
       </c>
       <c r="H24" s="2">
         <v>60</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>60</v>
       </c>
       <c r="J24" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1370,20 +1442,23 @@
       <c r="F25" s="1">
         <v>6000000</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="1">
         <v>6000000</v>
       </c>
       <c r="H25" s="2">
         <v>6000000</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>6000000</v>
       </c>
       <c r="J25" s="3">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K25" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1402,20 +1477,23 @@
       <c r="F26" s="1">
         <v>9300</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="1">
         <v>9300</v>
       </c>
       <c r="H26" s="2">
         <v>9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="2">
         <v>9300</v>
       </c>
       <c r="J26" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K26" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1434,20 +1512,23 @@
       <c r="F27" s="1">
         <v>7.5</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="1">
         <v>7.5</v>
       </c>
       <c r="H27" s="2">
         <v>7.5</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>7.5</v>
       </c>
       <c r="J27" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K27" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1466,20 +1547,23 @@
       <c r="F28" s="1">
         <v>4</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="1">
         <v>4</v>
       </c>
       <c r="H28" s="2">
         <v>4</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>4</v>
       </c>
       <c r="J28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1498,20 +1582,23 @@
       <c r="F29" s="1">
         <v>4</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="1">
         <v>4</v>
       </c>
       <c r="H29" s="2">
         <v>4</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>4</v>
       </c>
       <c r="J29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1530,20 +1617,23 @@
       <c r="F30" s="1">
         <v>4200</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="1">
         <v>4200</v>
       </c>
       <c r="H30" s="2">
         <v>4200</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>4200</v>
       </c>
       <c r="J30" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1562,20 +1652,23 @@
       <c r="F31" s="1">
         <v>1100</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="1">
         <v>1100</v>
       </c>
       <c r="H31" s="2">
         <v>1100</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>1100</v>
       </c>
       <c r="J31" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K31" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1594,20 +1687,23 @@
       <c r="F32" s="1">
         <v>10</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="1">
         <v>10</v>
       </c>
       <c r="H32" s="2">
         <v>10</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="2">
         <v>10</v>
       </c>
       <c r="J32" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1626,20 +1722,23 @@
       <c r="F33" s="1">
         <v>11</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="1">
         <v>11</v>
       </c>
       <c r="H33" s="2">
         <v>11</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="2">
         <v>11</v>
       </c>
       <c r="J33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1658,20 +1757,23 @@
       <c r="F34" s="1">
         <v>6</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="1">
         <v>6</v>
       </c>
       <c r="H34" s="2">
         <v>6</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="2">
         <v>6</v>
       </c>
       <c r="J34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1690,20 +1792,23 @@
       <c r="F35" s="1">
         <v>7</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="1">
         <v>7</v>
       </c>
       <c r="H35" s="2">
         <v>7</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="2">
         <v>7</v>
       </c>
       <c r="J35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1722,20 +1827,23 @@
       <c r="F36" s="1">
         <v>2</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="1">
         <v>2</v>
       </c>
       <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="2">
         <v>2</v>
       </c>
       <c r="J36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1754,20 +1862,23 @@
       <c r="F37" s="1">
         <v>3</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="1">
         <v>3</v>
       </c>
       <c r="H37" s="2">
         <v>3</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="2">
         <v>3</v>
       </c>
       <c r="J37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1786,16 +1897,19 @@
       <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>39</v>
       </c>
     </row>

--- a/Data/Test/dataset23/input_data.xlsx
+++ b/Data/Test/dataset23/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72D59F4-FBFC-43EE-8377-D98784474E3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06660EF7-0624-4DF4-B7C3-78A3B74A428E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -568,20 +568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="7" width="8.796875" style="1"/>
-    <col min="8" max="9" width="8.796875" style="2"/>
-    <col min="10" max="11" width="8.796875" style="3"/>
+    <col min="5" max="7" width="8.75" style="1"/>
+    <col min="8" max="8" width="9" style="2"/>
+    <col min="9" max="10" width="8.75" style="2"/>
+    <col min="11" max="12" width="8.75" style="3"/>
+    <col min="13" max="13" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -591,32 +593,38 @@
       <c r="C1">
         <v>2</v>
       </c>
-      <c r="D1" s="1">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1">
         <v>7</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1">
         <v>9</v>
       </c>
-      <c r="K1" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -626,7 +634,7 @@
       <c r="C2">
         <v>25</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2">
         <v>25</v>
       </c>
       <c r="E2" s="1">
@@ -644,14 +652,20 @@
       <c r="I2" s="2">
         <v>25</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="2">
         <v>25</v>
       </c>
       <c r="K2" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L2" s="3">
+        <v>25</v>
+      </c>
+      <c r="M2" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -661,7 +675,7 @@
       <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3">
         <v>90</v>
       </c>
       <c r="E3" s="1">
@@ -679,14 +693,20 @@
       <c r="I3" s="2">
         <v>90</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="2">
         <v>90</v>
       </c>
       <c r="K3" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="3">
+        <v>90</v>
+      </c>
+      <c r="M3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -696,7 +716,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" s="1">
@@ -714,14 +734,20 @@
       <c r="I4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
       <c r="K4" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="3">
+        <v>3</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -731,8 +757,8 @@
       <c r="C5">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
-        <v>10</v>
+      <c r="D5">
+        <v>12</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
@@ -749,14 +775,20 @@
       <c r="I5" s="2">
         <v>10</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -766,8 +798,8 @@
       <c r="C6">
         <v>22</v>
       </c>
-      <c r="D6" s="1">
-        <v>24</v>
+      <c r="D6">
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>24</v>
@@ -784,14 +816,20 @@
       <c r="I6" s="2">
         <v>24</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>24</v>
       </c>
       <c r="K6" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="3">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -801,8 +839,8 @@
       <c r="C7">
         <v>24</v>
       </c>
-      <c r="D7" s="1">
-        <v>16</v>
+      <c r="D7">
+        <v>24</v>
       </c>
       <c r="E7" s="1">
         <v>16</v>
@@ -819,14 +857,20 @@
       <c r="I7" s="2">
         <v>16</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>16</v>
       </c>
       <c r="K7" s="3">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L7" s="3">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -836,7 +880,7 @@
       <c r="C8">
         <v>20</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8">
         <v>20</v>
       </c>
       <c r="E8" s="1">
@@ -854,14 +898,20 @@
       <c r="I8" s="2">
         <v>20</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>20</v>
       </c>
       <c r="K8" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L8" s="3">
+        <v>20</v>
+      </c>
+      <c r="M8" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -871,7 +921,7 @@
       <c r="C9">
         <v>3</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" s="1">
@@ -889,14 +939,20 @@
       <c r="I9" s="2">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>3</v>
       </c>
       <c r="K9" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L9" s="3">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -906,8 +962,8 @@
       <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" s="1">
-        <v>12</v>
+      <c r="D10">
+        <v>16</v>
       </c>
       <c r="E10" s="1">
         <v>12</v>
@@ -924,14 +980,20 @@
       <c r="I10" s="2">
         <v>20</v>
       </c>
-      <c r="J10" s="3">
-        <v>12</v>
+      <c r="J10" s="2">
+        <v>20</v>
       </c>
       <c r="K10" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L10" s="3">
+        <v>12</v>
+      </c>
+      <c r="M10" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -941,7 +1003,7 @@
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" s="1">
@@ -959,14 +1021,20 @@
       <c r="I11" s="2">
         <v>1</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1</v>
       </c>
       <c r="K11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -976,8 +1044,8 @@
       <c r="C12">
         <v>32</v>
       </c>
-      <c r="D12" s="1">
-        <v>20</v>
+      <c r="D12">
+        <v>32</v>
       </c>
       <c r="E12" s="1">
         <v>20</v>
@@ -994,14 +1062,20 @@
       <c r="I12" s="2">
         <v>20</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>20</v>
       </c>
       <c r="K12" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L12" s="3">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1011,7 +1085,7 @@
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" s="1">
@@ -1029,14 +1103,20 @@
       <c r="I13" s="2">
         <v>2</v>
       </c>
-      <c r="J13" s="3">
-        <v>3</v>
+      <c r="J13" s="2">
+        <v>2</v>
       </c>
       <c r="K13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L13" s="3">
+        <v>3</v>
+      </c>
+      <c r="M13" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1046,8 +1126,8 @@
       <c r="C14">
         <v>16</v>
       </c>
-      <c r="D14" s="1">
-        <v>12</v>
+      <c r="D14">
+        <v>16</v>
       </c>
       <c r="E14" s="1">
         <v>12</v>
@@ -1064,14 +1144,20 @@
       <c r="I14" s="2">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>6</v>
+      <c r="J14" s="2">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L14" s="3">
+        <v>6</v>
+      </c>
+      <c r="M14" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1081,8 +1167,8 @@
       <c r="C15">
         <v>15</v>
       </c>
-      <c r="D15" s="1">
-        <v>8</v>
+      <c r="D15">
+        <v>15</v>
       </c>
       <c r="E15" s="1">
         <v>8</v>
@@ -1099,14 +1185,20 @@
       <c r="I15" s="2">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>8</v>
       </c>
       <c r="K15" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L15" s="3">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1116,7 +1208,7 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" s="1">
@@ -1134,14 +1226,20 @@
       <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>2</v>
       </c>
       <c r="K16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L16" s="3">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1151,7 +1249,7 @@
       <c r="C17">
         <v>20</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17">
         <v>20</v>
       </c>
       <c r="E17" s="1">
@@ -1169,14 +1267,20 @@
       <c r="I17" s="2">
         <v>20</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>20</v>
       </c>
       <c r="K17" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L17" s="3">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1186,7 +1290,7 @@
       <c r="C18">
         <v>-0.1</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18">
         <v>-0.1</v>
       </c>
       <c r="E18" s="1">
@@ -1206,14 +1310,21 @@
         <f>-0.1</f>
         <v>-0.1</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
+        <f>-0.1</f>
         <v>-0.1</v>
       </c>
       <c r="K18" s="3">
         <v>-0.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L18" s="3">
+        <v>-0.1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1223,7 +1334,7 @@
       <c r="C19">
         <v>10</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19">
         <v>10</v>
       </c>
       <c r="E19" s="1">
@@ -1241,14 +1352,20 @@
       <c r="I19" s="2">
         <v>10</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>10</v>
       </c>
       <c r="K19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L19" s="3">
+        <v>10</v>
+      </c>
+      <c r="M19" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1258,7 +1375,7 @@
       <c r="C20">
         <v>0.9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20">
         <v>0.9</v>
       </c>
       <c r="E20" s="1">
@@ -1276,14 +1393,20 @@
       <c r="I20" s="2">
         <v>0.9</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>0.9</v>
       </c>
       <c r="K20" s="3">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L20" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +1416,7 @@
       <c r="C21">
         <v>100</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" s="1">
@@ -1311,14 +1434,20 @@
       <c r="I21" s="2">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>100</v>
       </c>
       <c r="K21" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1328,7 +1457,7 @@
       <c r="C22">
         <v>25</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22">
         <v>25</v>
       </c>
       <c r="E22" s="1">
@@ -1346,14 +1475,20 @@
       <c r="I22" s="2">
         <v>25</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>25</v>
       </c>
       <c r="K22" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L22" s="3">
+        <v>25</v>
+      </c>
+      <c r="M22" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1363,7 +1498,7 @@
       <c r="C23">
         <v>20</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23">
         <v>20</v>
       </c>
       <c r="E23" s="1">
@@ -1381,14 +1516,20 @@
       <c r="I23" s="2">
         <v>20</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>20</v>
       </c>
       <c r="K23" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L23" s="3">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1539,7 @@
       <c r="C24">
         <v>60</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24">
         <v>60</v>
       </c>
       <c r="E24" s="1">
@@ -1416,14 +1557,20 @@
       <c r="I24" s="2">
         <v>60</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>60</v>
       </c>
       <c r="K24" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L24" s="3">
+        <v>60</v>
+      </c>
+      <c r="M24" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1433,7 +1580,7 @@
       <c r="C25">
         <v>6000000</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25">
         <v>6000000</v>
       </c>
       <c r="E25" s="1">
@@ -1451,14 +1598,20 @@
       <c r="I25" s="2">
         <v>6000000</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>6000000</v>
       </c>
       <c r="K25" s="3">
         <v>6000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L25" s="3">
+        <v>6000000</v>
+      </c>
+      <c r="M25" s="3">
+        <v>6000000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1468,7 +1621,7 @@
       <c r="C26">
         <v>9300</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>9300</v>
       </c>
       <c r="E26" s="1">
@@ -1486,14 +1639,20 @@
       <c r="I26" s="2">
         <v>9300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>9300</v>
       </c>
       <c r="K26" s="3">
         <v>9300</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L26" s="3">
+        <v>9300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1503,7 +1662,7 @@
       <c r="C27">
         <v>7.5</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>7.5</v>
       </c>
       <c r="E27" s="1">
@@ -1521,14 +1680,20 @@
       <c r="I27" s="2">
         <v>7.5</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>7.5</v>
       </c>
       <c r="K27" s="3">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L27" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="M27" s="3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1538,7 +1703,7 @@
       <c r="C28">
         <v>4</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>4</v>
       </c>
       <c r="E28" s="1">
@@ -1556,14 +1721,20 @@
       <c r="I28" s="2">
         <v>4</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>4</v>
       </c>
       <c r="K28" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L28" s="3">
+        <v>4</v>
+      </c>
+      <c r="M28" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1573,7 +1744,7 @@
       <c r="C29">
         <v>4</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" s="1">
@@ -1591,14 +1762,20 @@
       <c r="I29" s="2">
         <v>4</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>4</v>
       </c>
       <c r="K29" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L29" s="3">
+        <v>4</v>
+      </c>
+      <c r="M29" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1608,7 +1785,7 @@
       <c r="C30">
         <v>4200</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>4200</v>
       </c>
       <c r="E30" s="1">
@@ -1626,14 +1803,20 @@
       <c r="I30" s="2">
         <v>4200</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>4200</v>
       </c>
       <c r="K30" s="3">
         <v>4200</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L30" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M30" s="3">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1643,7 +1826,7 @@
       <c r="C31">
         <v>1100</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31">
         <v>1100</v>
       </c>
       <c r="E31" s="1">
@@ -1661,14 +1844,20 @@
       <c r="I31" s="2">
         <v>1100</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>1100</v>
       </c>
       <c r="K31" s="3">
         <v>1100</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L31" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M31" s="3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1678,7 +1867,7 @@
       <c r="C32">
         <v>10</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32">
         <v>10</v>
       </c>
       <c r="E32" s="1">
@@ -1696,14 +1885,20 @@
       <c r="I32" s="2">
         <v>10</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>10</v>
       </c>
       <c r="K32" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L32" s="3">
+        <v>10</v>
+      </c>
+      <c r="M32" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1713,7 +1908,7 @@
       <c r="C33">
         <v>11</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33">
         <v>11</v>
       </c>
       <c r="E33" s="1">
@@ -1731,14 +1926,20 @@
       <c r="I33" s="2">
         <v>11</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>11</v>
       </c>
       <c r="K33" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L33" s="3">
+        <v>11</v>
+      </c>
+      <c r="M33" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1748,7 +1949,7 @@
       <c r="C34">
         <v>6</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34">
         <v>6</v>
       </c>
       <c r="E34" s="1">
@@ -1766,14 +1967,20 @@
       <c r="I34" s="2">
         <v>6</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>6</v>
       </c>
       <c r="K34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L34" s="3">
+        <v>6</v>
+      </c>
+      <c r="M34" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1783,7 +1990,7 @@
       <c r="C35">
         <v>7</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35">
         <v>7</v>
       </c>
       <c r="E35" s="1">
@@ -1801,14 +2008,20 @@
       <c r="I35" s="2">
         <v>7</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>7</v>
       </c>
       <c r="K35" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L35" s="3">
+        <v>7</v>
+      </c>
+      <c r="M35" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1818,7 +2031,7 @@
       <c r="C36">
         <v>2</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36">
         <v>2</v>
       </c>
       <c r="E36" s="1">
@@ -1836,14 +2049,20 @@
       <c r="I36" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>2</v>
       </c>
       <c r="K36" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L36" s="3">
+        <v>2</v>
+      </c>
+      <c r="M36" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +2072,7 @@
       <c r="C37">
         <v>3</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" s="1">
@@ -1871,14 +2090,20 @@
       <c r="I37" s="2">
         <v>3</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>3</v>
       </c>
       <c r="K37" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L37" s="3">
+        <v>3</v>
+      </c>
+      <c r="M37" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1888,8 +2113,8 @@
       <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>39</v>
+      <c r="D38" t="s">
+        <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -1906,10 +2131,16 @@
       <c r="I38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1927,9 +2158,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1943,7 +2174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1957,7 +2188,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1971,7 +2202,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1985,7 +2216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1999,7 +2230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -2013,7 +2244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2027,7 +2258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -2041,7 +2272,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2055,7 +2286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2069,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2083,7 +2314,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2097,7 +2328,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2111,7 +2342,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2125,7 +2356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2139,7 +2370,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2167,9 +2398,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2186,7 +2417,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2203,7 +2434,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2220,7 +2451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2237,7 +2468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2254,7 +2485,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2271,7 +2502,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2288,7 +2519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2305,7 +2536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2322,7 +2553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2339,7 +2570,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2356,7 +2587,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2373,7 +2604,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2390,7 +2621,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2424,7 +2655,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2455,9 +2686,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2468,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2479,7 +2710,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2490,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2501,7 +2732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2512,7 +2743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2523,7 +2754,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2548,9 +2779,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2558,7 +2789,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2566,7 +2797,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2574,7 +2805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2582,7 +2813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>
